--- a/christensen-hamilton/Variable Matrix.xlsx
+++ b/christensen-hamilton/Variable Matrix.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jham9\Dropbox\259 Distributive\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jham9\OneDrive\Documents\GitHub\distributive_politics\christensen-hamilton\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{976761D5-FD22-45A2-B409-EF44B8E292D8}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="45" documentId="13_ncr:1_{976761D5-FD22-45A2-B409-EF44B8E292D8}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{83911E26-E856-4B29-9D83-ADA2995F7A9C}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="5600" xr2:uid="{C5368D8E-AFDF-4369-83CB-C976CD7E91A5}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="80">
   <si>
     <t>Country/countries included</t>
   </si>
@@ -42,215 +42,260 @@
     <t>Source</t>
   </si>
   <si>
+    <t>Over the past year, how often, if ever, have you or your family gone without: School expenses for your children (like fees, uniforms or books)?</t>
+  </si>
+  <si>
+    <t>self interest</t>
+  </si>
+  <si>
+    <t>Which of the following statements is closest to your view?. Choose Statement A or Statement B. A: It is better to have free schooling for our children, even if the quality of education is low. B: It is better to raise educational standards, even if we have to pay school fees. (Set A = 1, B =0)</t>
+  </si>
+  <si>
+    <t>+</t>
+  </si>
+  <si>
+    <t>Have you encountered any of these problems with your local public schools during the past 12 months?. Services are too expensive / Unable to pay.</t>
+  </si>
+  <si>
+    <t>Have you encountered any of these problems with your local public schools during the past 12 months?. Lack of textbooks or other supplies.</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Have you encountered any of these problems with your local public schools during the past 12 months?. Poor teaching.</t>
+  </si>
+  <si>
+    <t>Have you encountered any of these problems with your local public schools during the past 12 months? Absent teachers.</t>
+  </si>
+  <si>
+    <t>Have you encountered any of these problems with your local public schools during the past 12 months? Poor conditions of facilities.</t>
+  </si>
+  <si>
+    <t>Have you encountered any of these problems with your local public schools during the past 12 months?. Overcrowded classrooms.</t>
+  </si>
+  <si>
+    <t>symbolic politics</t>
+  </si>
+  <si>
+    <t>Think about the condition of ____________ [respondent’s identity group]. Do they have less, the same, or more influence in politics than other groups in this country?. More = 1, less = 0</t>
+  </si>
+  <si>
+    <t>How often are ___________s [respondent’s identity group] treated unfairly by the government?.</t>
+  </si>
+  <si>
+    <t>How much do you trust each of the following types of people: Ugandans from other ethnic groups?</t>
+  </si>
+  <si>
+    <t>Let’s talk for a moment about the kind of society we would like to have in this country. Which of the following statements is closest to your view?. Choose Statement A or Statement B. A: People should look after themselves and be responsible for their own success in life. B: The government should bear the main responsibility for the well-being of people. A= 1, B=0</t>
+  </si>
+  <si>
+    <t>AFB3</t>
+  </si>
+  <si>
+    <t>Preference Question (IV)</t>
+  </si>
+  <si>
+    <t>?+</t>
+  </si>
+  <si>
+    <t>?-</t>
+  </si>
+  <si>
+    <t>Let us suppose that you had to choose between being a [nationality] and being a ________ [respondent’s identity group]. Which of the following statements best expresses your feelings?. Ethnic = 1</t>
+  </si>
+  <si>
+    <t>When jobs are scarce, employers should give priority to people of this country over immigrants</t>
+  </si>
+  <si>
+    <t>WVS6</t>
+  </si>
+  <si>
+    <t>Ghana, Nigeria, Rwanda, South Africa, Zimbabwe</t>
+  </si>
+  <si>
+    <t>Mother is an immigrant</t>
+  </si>
+  <si>
+    <t>Father is an immigrant</t>
+  </si>
+  <si>
+    <t>Respondent is an immigrant</t>
+  </si>
+  <si>
+    <t>In the past 12 months, gone without cash income</t>
+  </si>
+  <si>
+    <t>Respondent employment status</t>
+  </si>
+  <si>
+    <t>Is the chief wage earner in your household employed now or not (employed = 1, not =0)</t>
+  </si>
+  <si>
+    <t>Worry: losing my job or not finding a job</t>
+  </si>
+  <si>
+    <t>"People can only get rich at the expense of others" (1) vs. "Wealth can grow so there’s enough for everyone" (0)</t>
+  </si>
+  <si>
+    <t>How proud of nationality</t>
+  </si>
+  <si>
+    <t>How much you trust: people of another nationality</t>
+  </si>
+  <si>
+    <t>"Incomes should be made more equal" (1)  vs. "We need larger income differences as incentives for individual effort" (0)</t>
+  </si>
+  <si>
+    <t>I see myself as part of the nation</t>
+  </si>
+  <si>
+    <t>Which party would you vote for if their were a national election tomorrow</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>Important child qualities: tolerance and respect for other people</t>
+  </si>
+  <si>
+    <t>Satisfaction with financial situation of household</t>
+  </si>
+  <si>
+    <t>Self-positioning on political scale</t>
+  </si>
+  <si>
+    <t>"Government should take more responsibility to ensure that everyone is provided for" (1) vs. 
+"People should take more responsibility to provide for themselves" (0)</t>
+  </si>
+  <si>
+    <t>"Private ownership of business and industry should be increased" vs. "Government ownership of business and industry should be increased"</t>
+  </si>
+  <si>
+    <t>Have a business/have taken steps to start a business during the last year</t>
+  </si>
+  <si>
+    <t>sector of employment</t>
+  </si>
+  <si>
+    <t>Law on the death penalty should be maintained for people who commit crimes</t>
+  </si>
+  <si>
+    <t>AFB6</t>
+  </si>
+  <si>
+    <t>Ghana</t>
+  </si>
+  <si>
+    <t>suffered armed robbery attack or murder</t>
+  </si>
+  <si>
+    <t>how often felt unsafe walking in your neighborhood</t>
+  </si>
+  <si>
+    <t>how often feared crime in home</t>
+  </si>
+  <si>
+    <t>had something stolen from home</t>
+  </si>
+  <si>
+    <t>have been physically attacked</t>
+  </si>
+  <si>
+    <t>death penalty is a good deterrent against crime</t>
+  </si>
+  <si>
+    <t>party identification</t>
+  </si>
+  <si>
+    <t>trust courts of law</t>
+  </si>
+  <si>
+    <t>ChristianXreligious practice</t>
+  </si>
+  <si>
+    <t>pos for same as president</t>
+  </si>
+  <si>
+    <t>Benin, Malawi, Mali, Senegal, Uganda</t>
+  </si>
+  <si>
+    <t>Liberia, Sierra Leone</t>
+  </si>
+  <si>
+    <t>Know a close friend or relative who was infected with Ebola</t>
+  </si>
+  <si>
+    <t>self-interest</t>
+  </si>
+  <si>
+    <t>Unable to attend school due to Ebola</t>
+  </si>
+  <si>
+    <t>Unable to attend work due to Ebola</t>
+  </si>
+  <si>
+    <t>Unable to attend social gatherings due to Ebola</t>
+  </si>
+  <si>
+    <t>Unable to get medical care for other problems due to Ebola</t>
+  </si>
+  <si>
+    <t>Close to which party (interact with whether that party is currently in power)</t>
+  </si>
+  <si>
+    <t>negative for out of power, positive for in power</t>
+  </si>
+  <si>
+    <t>positive for party in power, negative for others</t>
+  </si>
+  <si>
+    <t>Ethnic group treated unfairly</t>
+  </si>
+  <si>
+    <t>ethnic identity (1) or national identity (0)</t>
+  </si>
+  <si>
+    <t>Govt should devote more resources to Ebola (1) vs focus on other problems (0)</t>
+  </si>
+  <si>
+    <t>Attitude toward Westerners: Indicate U.S. or former colonial power as model country for development</t>
+  </si>
+  <si>
+    <t>Benin, Nigeria, Kenya, Malawi, Mali, Niger, Togo</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">If the government decided to make people pay more taxes or user fees in order to increase spending on public health care, would you support this decision or oppose it? </t>
+    </r>
     <r>
       <rPr>
         <b/>
         <sz val="11"/>
-        <color theme="1"/>
+        <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">Zambia, </t>
+      <t>NOTE</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
+        <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Benin (maybe - unbiased in K&amp;P but biased in F&amp;R), Senegal (negative in K&amp;P, insignif in F&amp;R), Mali (negative in K&amp;p, only one with pval .1 in F&amp;R)</t>
+      <t>: Subset to those who have never gone without medical care bc can't afford it (eliminates ambiguity in terms of user fees vs. taxes), those who do have a health clinic in PSA (eliminates ambiguity of whether they believe new funding would be used to build health clinic for them versus they will never see the money)</t>
     </r>
-  </si>
-  <si>
-    <t>Over the past year, how often, if ever, have you or your family gone without: School expenses for your children (like fees, uniforms or books)?</t>
-  </si>
-  <si>
-    <t>self interest</t>
-  </si>
-  <si>
-    <t>Which of the following statements is closest to your view?. Choose Statement A or Statement B. A: It is better to have free schooling for our children, even if the quality of education is low. B: It is better to raise educational standards, even if we have to pay school fees. (Set A = 1, B =0)</t>
-  </si>
-  <si>
-    <t>+</t>
-  </si>
-  <si>
-    <t>Have you encountered any of these problems with your local public schools during the past 12 months?. Services are too expensive / Unable to pay.</t>
-  </si>
-  <si>
-    <t>Have you encountered any of these problems with your local public schools during the past 12 months?. Lack of textbooks or other supplies.</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>Have you encountered any of these problems with your local public schools during the past 12 months?. Poor teaching.</t>
-  </si>
-  <si>
-    <t>Have you encountered any of these problems with your local public schools during the past 12 months? Absent teachers.</t>
-  </si>
-  <si>
-    <t>Have you encountered any of these problems with your local public schools during the past 12 months? Poor conditions of facilities.</t>
-  </si>
-  <si>
-    <t>Have you encountered any of these problems with your local public schools during the past 12 months?. Overcrowded classrooms.</t>
-  </si>
-  <si>
-    <t>symbolic politics</t>
-  </si>
-  <si>
-    <t>Think about the condition of ____________ [respondent’s identity group]. Do they have less, the same, or more influence in politics than other groups in this country?. More = 1, less = 0</t>
-  </si>
-  <si>
-    <t>How often are ___________s [respondent’s identity group] treated unfairly by the government?.</t>
-  </si>
-  <si>
-    <t>How much do you trust each of the following types of people: Ugandans from other ethnic groups?</t>
-  </si>
-  <si>
-    <t>Let’s talk for a moment about the kind of society we would like to have in this country. Which of the following statements is closest to your view?. Choose Statement A or Statement B. A: People should look after themselves and be responsible for their own success in life. B: The government should bear the main responsibility for the well-being of people. A= 1, B=0</t>
-  </si>
-  <si>
-    <t>AFB3</t>
-  </si>
-  <si>
-    <t>Close to which party</t>
-  </si>
-  <si>
-    <t>Preference Question (IV)</t>
-  </si>
-  <si>
-    <t>?+</t>
-  </si>
-  <si>
-    <t>?-</t>
-  </si>
-  <si>
-    <t>Let us suppose that you had to choose between being a [nationality] and being a ________ [respondent’s identity group]. Which of the following statements best expresses your feelings?. Ethnic = 1</t>
-  </si>
-  <si>
-    <t>?- for out of power</t>
-  </si>
-  <si>
-    <t>When jobs are scarce, employers should give priority to people of this country over immigrants</t>
-  </si>
-  <si>
-    <t>WVS6</t>
-  </si>
-  <si>
-    <t>Ghana, Nigeria, Rwanda, South Africa, Zimbabwe</t>
-  </si>
-  <si>
-    <t>Mother is an immigrant</t>
-  </si>
-  <si>
-    <t>Father is an immigrant</t>
-  </si>
-  <si>
-    <t>Respondent is an immigrant</t>
-  </si>
-  <si>
-    <t>In the past 12 months, gone without cash income</t>
-  </si>
-  <si>
-    <t>Respondent employment status</t>
-  </si>
-  <si>
-    <t>Is the chief wage earner in your household employed now or not (employed = 1, not =0)</t>
-  </si>
-  <si>
-    <t>Worry: losing my job or not finding a job</t>
-  </si>
-  <si>
-    <t>"People can only get rich at the expense of others" (1) vs. "Wealth can grow so there’s enough for everyone" (0)</t>
-  </si>
-  <si>
-    <t>How proud of nationality</t>
-  </si>
-  <si>
-    <t>How much you trust: people of another nationality</t>
-  </si>
-  <si>
-    <t>"Incomes should be made more equal" (1)  vs. "We need larger income differences as incentives for individual effort" (0)</t>
-  </si>
-  <si>
-    <t>I see myself as part of the nation</t>
-  </si>
-  <si>
-    <t>Which party would you vote for if their were a national election tomorrow</t>
-  </si>
-  <si>
-    <t>?</t>
-  </si>
-  <si>
-    <t>Important child qualities: tolerance and respect for other people</t>
-  </si>
-  <si>
-    <t>Satisfaction with financial situation of household</t>
-  </si>
-  <si>
-    <t>Self-positioning on political scale</t>
-  </si>
-  <si>
-    <t>"Government should take more responsibility to ensure that everyone is provided for" (1) vs. 
-"People should take more responsibility to provide for themselves" (0)</t>
-  </si>
-  <si>
-    <t>"Private ownership of business and industry should be increased" vs. "Government ownership of business and industry should be increased"</t>
-  </si>
-  <si>
-    <t>Have a business/have taken steps to start a business during the last year</t>
-  </si>
-  <si>
-    <t>sector of employment</t>
-  </si>
-  <si>
-    <t>Law on the death penalty should be maintained for people who commit crimes</t>
-  </si>
-  <si>
-    <t>AFB6</t>
-  </si>
-  <si>
-    <t>Ghana</t>
-  </si>
-  <si>
-    <t>suffered armed robbery attack or murder</t>
-  </si>
-  <si>
-    <t>how often felt unsafe walking in your neighborhood</t>
-  </si>
-  <si>
-    <t>how often feared crime in home</t>
-  </si>
-  <si>
-    <t>had something stolen from home</t>
-  </si>
-  <si>
-    <t>have been physically attacked</t>
-  </si>
-  <si>
-    <t>death penalty is a good deterrent against crime</t>
-  </si>
-  <si>
-    <t>party identification</t>
-  </si>
-  <si>
-    <t>trust courts of law</t>
-  </si>
-  <si>
-    <t>ChristianXreligious practice</t>
-  </si>
-  <si>
-    <t>pos for same as president</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -259,9 +304,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -287,9 +339,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -606,11 +661,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10F283D3-A37A-4C1A-9460-4507DA996268}">
-  <dimension ref="A1:F46"/>
+  <dimension ref="A1:F56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G38" sqref="G38"/>
+      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D56" sqref="D56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -625,7 +680,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>4</v>
@@ -645,509 +700,652 @@
     </row>
     <row r="2" spans="1:6" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="E2" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="58" x14ac:dyDescent="0.35">
       <c r="D3" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="D4" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="D5" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="D6" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="D7" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="D8" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="58" x14ac:dyDescent="0.35">
       <c r="D9" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="D10" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="72.5" x14ac:dyDescent="0.35">
       <c r="D11" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="D12" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="116" x14ac:dyDescent="0.35">
       <c r="D13" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="87" x14ac:dyDescent="0.35">
       <c r="D14" s="1" t="s">
-        <v>23</v>
+        <v>71</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>28</v>
+        <v>72</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>32</v>
-      </c>
       <c r="E15" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="D16" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="D17" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="D18" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="D19" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="D20" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="D21" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="D22" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="D23" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="D24" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="D25" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="D26" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="D27" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="D28" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="D29" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="D30" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="58" x14ac:dyDescent="0.35">
       <c r="D31" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="58" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="D33" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="58" x14ac:dyDescent="0.35">
       <c r="D34" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="D35" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="D36" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="D37" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A38" s="1" t="s">
+      <c r="A38" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D38" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="E38" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A39" s="2"/>
+      <c r="B39" s="2"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="E39" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A40" s="2"/>
+      <c r="B40" s="2"/>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="D38" s="1" t="s">
+      <c r="E40" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A41" s="2"/>
+      <c r="B41" s="2"/>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="E38" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="D39" s="1" t="s">
+      <c r="E41" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A42" s="2"/>
+      <c r="B42" s="2"/>
+      <c r="C42" s="2"/>
+      <c r="D42" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="E39" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="D40" s="1" t="s">
+      <c r="E42" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A43" s="2"/>
+      <c r="B43" s="2"/>
+      <c r="C43" s="2"/>
+      <c r="D43" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="E40" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="D41" s="1" t="s">
+      <c r="E43" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A44" s="2"/>
+      <c r="B44" s="2"/>
+      <c r="C44" s="2"/>
+      <c r="D44" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="E41" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F41" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="D42" s="1" t="s">
+      <c r="E44" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A45" s="2"/>
+      <c r="B45" s="2"/>
+      <c r="C45" s="2"/>
+      <c r="D45" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="E42" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F42" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="D43" s="1" t="s">
+      <c r="E45" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A46" s="2"/>
+      <c r="B46" s="2"/>
+      <c r="C46" s="2"/>
+      <c r="D46" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="E43" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="D44" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F44" s="1" t="s">
+      <c r="E46" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A47" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D47" s="1" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="D45" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F45" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="D46" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F46" s="1" t="s">
-        <v>12</v>
+      <c r="E47" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D48" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D49" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D50" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="D51" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="87" x14ac:dyDescent="0.35">
+      <c r="D52" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D53" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D54" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="D55" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" s="2" customFormat="1" ht="159.5" x14ac:dyDescent="0.35">
+      <c r="A56" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>78</v>
       </c>
     </row>
   </sheetData>

--- a/christensen-hamilton/Variable Matrix.xlsx
+++ b/christensen-hamilton/Variable Matrix.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jham9\OneDrive\Documents\GitHub\distributive_politics\christensen-hamilton\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="45" documentId="13_ncr:1_{976761D5-FD22-45A2-B409-EF44B8E292D8}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{83911E26-E856-4B29-9D83-ADA2995F7A9C}"/>
+  <xr:revisionPtr revIDLastSave="49" documentId="13_ncr:1_{976761D5-FD22-45A2-B409-EF44B8E292D8}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{63802A80-265C-46D3-B51A-E110A05FB785}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="5600" xr2:uid="{C5368D8E-AFDF-4369-83CB-C976CD7E91A5}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="78">
   <si>
     <t>Country/countries included</t>
   </si>
@@ -239,15 +239,6 @@
   </si>
   <si>
     <t>Unable to get medical care for other problems due to Ebola</t>
-  </si>
-  <si>
-    <t>Close to which party (interact with whether that party is currently in power)</t>
-  </si>
-  <si>
-    <t>negative for out of power, positive for in power</t>
-  </si>
-  <si>
-    <t>positive for party in power, negative for others</t>
   </si>
   <si>
     <t>Ethnic group treated unfairly</t>
@@ -289,6 +280,9 @@
       </rPr>
       <t>: Subset to those who have never gone without medical care bc can't afford it (eliminates ambiguity in terms of user fees vs. taxes), those who do have a health clinic in PSA (eliminates ambiguity of whether they believe new funding would be used to build health clinic for them versus they will never see the money)</t>
     </r>
+  </si>
+  <si>
+    <t>Close to which party - recode 1 if in power, 0 if out of power</t>
   </si>
 </sst>
 </file>
@@ -663,9 +657,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10F283D3-A37A-4C1A-9460-4507DA996268}">
   <dimension ref="A1:F56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D56" sqref="D56"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -839,15 +833,15 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="87" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="D14" s="1" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>72</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
@@ -1231,7 +1225,7 @@
     </row>
     <row r="47" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A47" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>51</v>
@@ -1293,20 +1287,20 @@
         <v>11</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="87" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="D52" s="1" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="E52" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>73</v>
+        <v>8</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.35">
       <c r="D53" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E53" s="1" t="s">
         <v>16</v>
@@ -1317,7 +1311,7 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.35">
       <c r="D54" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E54" s="1" t="s">
         <v>16</v>
@@ -1328,7 +1322,7 @@
     </row>
     <row r="55" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="D55" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E55" s="1" t="s">
         <v>16</v>
@@ -1339,13 +1333,13 @@
     </row>
     <row r="56" spans="1:6" s="2" customFormat="1" ht="159.5" x14ac:dyDescent="0.35">
       <c r="A56" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>51</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>

--- a/christensen-hamilton/Variable Matrix.xlsx
+++ b/christensen-hamilton/Variable Matrix.xlsx
@@ -657,9 +657,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10F283D3-A37A-4C1A-9460-4507DA996268}">
   <dimension ref="A1:F56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
